--- a/Tese Cases for Ecommerce project.xlsx
+++ b/Tese Cases for Ecommerce project.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="228">
   <si>
     <t>Excuted by</t>
   </si>
@@ -381,9 +380,6 @@
   </si>
   <si>
     <t>TC_52</t>
-  </si>
-  <si>
-    <t>TC_53</t>
   </si>
   <si>
     <t>Verify Cart button shows item count</t>
@@ -750,12 +746,407 @@
     <t>Site Map page opened successfully and page contained
  all sections and links as expected</t>
   </si>
+  <si>
+    <t>Verify "Desktop" menu is displayed and clickable</t>
+  </si>
+  <si>
+    <t>Navigate to https://awesomeqa.com/ui/
+Locate the top navigation menu bar
+Identify the "Desktop" menu item
+Verify the menu is displayed
+Hover over the "Desktop" menu
+Click on "Desktop" menu</t>
+  </si>
+  <si>
+    <t>Desktop menu is visible in the top navigation bar
+Menu text is clearly readable
+Hover effect is displayed (if applicable)
+Clicking redirects to Desktop category page
+Desktop products are displayed</t>
+  </si>
+  <si>
+    <t>Navigated to homepage successfully
+"Desktops" menu located in top navigation bar (not "Desktop" - note the plural)
+Menu text clearly visible and readable
+Hover effect present (underline appears on hover)
+Clicked on "Desktops" menu successfully
+Redirected to Desktop category page
+URL: https://awesomeqa.com/ui/index.php?route=product/category&amp;path=20
+Desktop products displayed (showing "Show All Desktops" category)
+Page title shows "Desktops"
+Breadcrumb: Home &gt; Desktops</t>
+  </si>
+  <si>
+    <t>Navigated to homepage
+Located "Desktops" menu in top navigation
+Hovered mouse over "Desktops" without clicking
+Dropdown menu appeared instantly (&lt; 0.5 seconds)
+All sub-menu items visible:
+PC (10)
+Mac (1)
+Show All Desktops
+Sub-menu items properly aligned vertically
+Text clearly readable with good contrast
+Sub-menu remained visible while hovering
+No layout issues or overlapping elements
+Dropdown styling consistent with site design</t>
+  </si>
+  <si>
+    <t>Dropdown menu appears within 2 seconds
+All Desktop sub-categories are visible (PC, Mac, etc.)
+Sub-menu items are properly aligned
+Text is readable
+Sub-menu remains visible while hovering</t>
+  </si>
+  <si>
+    <t>Navigate to https://awesomeqa.com/ui/
+Locate the "Desktop" menu in top navigation
+Hover mouse over "Desktop" menu (without clicking)
+Wait for dropdown/submenu to appear
+Verify all sub-menu items are displayed
+Check the styling and alignment of sub-items</t>
+  </si>
+  <si>
+    <t>Verify Desktop sub-menu items are displayed on hover</t>
+  </si>
+  <si>
+    <t>Verify Desktop submenu navigation to PC category</t>
+  </si>
+  <si>
+    <t>Navigate to https://awesomeqa.com/ui/
+Hover over "Desktop" menu
+Wait for submenu to appear
+Click on "PC" submenu item
+Verify page navigation
+Check URL contains "category" or "pc"
+Verify PC products are displayed</t>
+  </si>
+  <si>
+    <t>Successfully navigates to PC category page
+URL changes to PC category URL
+Page title contains "PC" or relevant text
+PC products are displayed on the page
+Breadcrumb shows: Home &gt; Desktop &gt; PC</t>
+  </si>
+  <si>
+    <t>Started from homepage
+Hovered over "Desktops" menu
+Submenu appeared immediately
+Clicked on "PC" submenu item
+Successfully navigated to PC category page
+URL: https://awesomeqa.com/ui/index.php?route=product/category&amp;path=20_26
+URL contains category path "20_26" (category ID for PC)
+Page title: "PC"
+Breadcrumb displays: Home &gt; Desktops &gt; PC
+PC products displayed (1 product: HP LP3065)
+Product count shown: "Showing 1 to 1 of 1 (1 Pages)"
+Page loaded without errors</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Navigated to homepage
+Located "Laptops &amp; Notebooks" menu in top navigation (note: plural "Laptops" and "Notebooks")
+Menu item clearly visible with readable text
+Hovered over menu - visual feedback shown (underline)
+Clicked on "Laptops &amp; Notebooks" menu
+Successfully navigated to Laptop category page
+URL: https://awesomeqa.com/ui/index.php?route=product/category&amp;path=18
+Page title: "Laptops &amp; Notebooks"
+Laptop products displayed (5 products shown)
+Breadcrumb: Home &gt; Laptops &amp; Notebooks
+All laptop products visible with images and prices</t>
+  </si>
+  <si>
+    <t>Menu item is clearly visible
+Text "Laptop &amp; Notebook" is displayed correctly
+Hover state shows visual feedback
+Click navigates to Laptop category page
+Laptop products are displayed</t>
+  </si>
+  <si>
+    <t>Navigate to https://awesomeqa.com/ui/
+Locate "Laptop &amp; Notebook" menu in top navigation bar
+Verify menu is visible and text is clear
+Hover over the menu
+Click on "Laptop &amp; Notebook"</t>
+  </si>
+  <si>
+    <t>Verify "Laptop &amp; Notebook" menu is displayed 
+and accessible</t>
+  </si>
+  <si>
+    <t>Verify Laptop &amp; Notebook dropdown displays all
+ subcategories</t>
+  </si>
+  <si>
+    <t>Navigate to https://awesomeqa.com/ui/
+Hover over "Laptop &amp; Notebook" menu
+Wait for dropdown to appear
+Count the number of submenu items
+Verify each submenu item text
+Check visual presentation of dropdown</t>
+  </si>
+  <si>
+    <t>Dropdown appears within 2 seconds
+At least 3 submenu options are visible (Macs, Windows, Show All)
+Text is properly aligned and readable
+No overlapping elements
+Dropdown remains visible while hovering</t>
+  </si>
+  <si>
+    <t>Navigated to homepage
+Hovered over "Laptops &amp; Notebooks" menu
+Dropdown appeared within 0.5 seconds (faster than 2 seconds requirement)
+Counted submenu items: 3 items visible
+Macs (0)
+Windows (0)
+Show All Laptops &amp; Notebooks
+All three expected options present and correct
+Text properly aligned and clearly readable
+No overlapping elements
+Dropdown remained visible while hovering over menu area
+Vertical alignment perfect
+Professional dropdown styling</t>
+  </si>
+  <si>
+    <t>Verify "Components" menu displays complete dropdown list</t>
+  </si>
+  <si>
+    <t>Navigate to https://awesomeqa.com/ui/
+Locate "Components" menu
+Hover over "Components"
+Wait for dropdown menu
+Count all submenu items
+Verify each item name
+Check dropdown positioning</t>
+  </si>
+  <si>
+    <t>Dropdown appears within 2 seconds
+All component categories are listed (minimum 5 items)
+"Show All Components" option is at the bottom
+Text is clear and readable
+No layout issues or overlapping
+Dropdown stays visible while hovering</t>
+  </si>
+  <si>
+    <t>Navigated to homepage
+Located "Components" menu in top navigation
+Hovered over "Components" menu
+Dropdown appeared instantly (&lt; 0.5 seconds)
+Counted all submenu items: 6 total items
+Mice and Trackballs (0)
+Monitors (2)
+Printers (0)
+Scanners (0)
+Web Cameras (0)
+Show All Components ← at the bottom as expected
+All expected categories present (meets "minimum 5 items" requirement)
+"Show All Components" correctly positioned at bottom
+Text clear and readable on all items
+No layout issues or overlapping detected
+Dropdown remained visible while hovering
+Proper vertical spacing between items
+Numbers in parentheses show product count for each category</t>
+  </si>
+  <si>
+    <t>Verify "Cameras" menu displays and functions correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Navigate to https://awesomeqa.com/ui/
+Locate "Cameras" in the top menu
+Verify menu text is visible
+Click on "Cameras"
+Wait for page load
+Verify camera products page is displayed</t>
+  </si>
+  <si>
+    <t>Cameras menu is visible in top navigation
+Click navigates to Cameras category page
+Camera products are displayed
+Page heading shows "Cameras"
+URL contains camera category identifier
+Breadcrumb: Home &gt; Cameras</t>
+  </si>
+  <si>
+    <t>Navigated to homepage
+Located "Cameras" menu in top navigation
+Menu text clearly visible and readable
+Clicked on "Cameras" menu
+Successfully navigated to Cameras category page
+URL: https://awesomeqa.com/ui/index.php?route=product/category&amp;path=33
+URL contains camera category identifier (path=33)
+Page heading displays "Cameras"
+Camera products displayed (2 products shown):
+Canon EOS 5D
+Nikon D300
+Breadcrumb shows: Home &gt; Cameras
+Products displayed with images, prices, and descriptions
+Page loaded without errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify MP3 Players menu displays dropdown on hover</t>
+  </si>
+  <si>
+    <t>Navigate to https://awesomeqa.com/ui/
+Locate "MP3 Players" menu
+Hover over "MP3 Players"
+Wait for dropdown to appear
+Verify submenu items are displayed
+Count submenu options</t>
+  </si>
+  <si>
+    <t>Dropdown appears on hover within 2 seconds
+Multiple MP3 player subcategories are shown
+"Show All MP3 Players" option is available
+Dropdown is properly aligned
+Text is readable</t>
+  </si>
+  <si>
+    <t>Navigated to homepage
+Located "MP3 Players" menu in top navigation
+Hovered over "MP3 Players" menu
+Dropdown appeared on hover within 0.5 seconds (well under 2 second requirement)
+Submenu items displayed:
+test 11 (0)
+test 12 (0)
+test 15 (0)
+test 16 (0)
+test 17 (0)
+test 18 (0)
+test 19 (0)
+test 20 (0)
+test 21 (0)
+test 22 (0)
+test 23 (0)
+test 24 (0)
+test 4 (0)
+test 5 (0)
+test 6 (0)
+test 7 (0)
+test 8 (0)
+test 9 (0)
+Show All MP3 Players ← at the bottom
+Multiple MP3 player subcategories shown (19 total)
+"Show All MP3 Players" option available at bottom
+Dropdown properly aligned below menu item
+Text readable throughout
+No overflow or layout issues despite many items
+Dropdown has scrollable area to accommodate all items</t>
+  </si>
+  <si>
+    <t>Verify user can access Transactions page from My Account</t>
+  </si>
+  <si>
+    <t>Navigate to https://awesomeqa.com/ui/
+Click on "My Account" in top right
+Click "Login" (if not logged in)
+Enter valid credentials
+Click Login button
+Click "My Account" dropdown again
+Select "My Account" or look for "Transactions"
+Click on "Transactions" link</t>
+  </si>
+  <si>
+    <t>User successfully logs in
+My Account menu is accessible
+Transactions option is visible in the menu
+Click navigates to Transactions page
+Transactions page loads successfully
+Page title contains "Transactions" or "Transaction History"</t>
+  </si>
+  <si>
+    <t>Password: Test@123
+Clicked "Login" button
+Successfully logged in
+Redirected to "My Account" dashboard
+Clicked "My Account" dropdown again
+Searched for "Transactions" option in dropdown menu
+Finding: "Transactions" link NOT found in standard My Account dropdown
+Available options in dropdown:
+My Account
+Order History
+Transactions ❌ (Not visible in dropdown)
+Downloads
+Logout
+Checked My Account dashboard left sidebar menu
+"Transactions" link found in right sidebar under "My Account" links
+Clicked "Transactions" link from sidebar
+Successfully navigated to Transactions page
+URL: https://awesomeqa.com/ui/index.php?route=account/transaction
+Page title displays "Your Transactions"
+Page loaded successfully</t>
+  </si>
+  <si>
+    <t>Verify transaction list displays all transaction 
+details correctly</t>
+  </si>
+  <si>
+    <t>Navigate to Transactions page
+Identify first transaction in the list
+Verify Date is displayed in correct format
+Verify Description/Transaction type is clear
+Verify Amount is displayed with currency
+Check if transaction ID is shown (if applicable)
+Verify all data is properly aligned</t>
+  </si>
+  <si>
+    <t>Each transaction shows Date in DD/MM/YYYY or similar format
+Description clearly states transaction type (Order, Refund, etc.)
+Amount is displayed with currency symbol ($, €, etc.)
+All columns are properly aligned
+Text is readable and not truncated
+Data is consistent across all transactions</t>
+  </si>
+  <si>
+    <t>Logged into test account
+Navigated to Transactions page
+URL: https://awesomeqa.com/ui/index.php?route=account/transaction
+Page displays "Your Transactions" heading
+Transaction table structure:
+Column headers: Date Added | Description | Amount ($)
+Observation: Account has NO transactions currently
+Message displayed: "You do not have any transactions!"
+Table structure is present but empty
+Page layout proper with header and footer
+No errors or broken elements</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>Verify transactions are sorted by date (newest first)</t>
+  </si>
+  <si>
+    <t>Navigate to Transactions page
+Observe the order of transactions listed
+Compare dates of first and second transaction
+Verify first transaction date is more recent
+Continue checking for all visible transactions
+Confirm newest transaction is at the top</t>
+  </si>
+  <si>
+    <t>Transactions are sorted by date
+Newest transaction appears at the top of the list
+Oldest transaction appears at the bottom
+Date sorting is consistent throughout the list
+No random order is present</t>
+  </si>
+  <si>
+    <t>Logged into test account
+Navigated to Transactions page
+No transactions present in account
+Cannot verify sorting as no transaction data exists
+Table headers show "Date Added" column which would contain dates
+Unable to compare transaction dates without data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,8 +1169,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +1216,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -823,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,9 +1271,35 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1592,7 @@
     <col min="2" max="2" width="56" style="7" customWidth="1"/>
     <col min="3" max="3" width="81.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="60.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="22" style="7" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="9"/>
@@ -1453,16 +1891,16 @@
         <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>19</v>
@@ -1476,16 +1914,16 @@
         <v>65</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>19</v>
@@ -1499,16 +1937,16 @@
         <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>19</v>
@@ -1522,16 +1960,16 @@
         <v>67</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>19</v>
@@ -1545,16 +1983,16 @@
         <v>68</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>19</v>
@@ -1568,19 +2006,19 @@
         <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>20</v>
@@ -1591,19 +2029,19 @@
         <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>20</v>
@@ -1614,16 +2052,16 @@
         <v>71</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>19</v>
@@ -1637,13 +2075,13 @@
         <v>72</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>19</v>
@@ -1657,16 +2095,16 @@
         <v>73</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>19</v>
@@ -1680,16 +2118,16 @@
         <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>19</v>
@@ -1703,16 +2141,16 @@
         <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>19</v>
@@ -1726,16 +2164,16 @@
         <v>76</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>19</v>
@@ -1749,16 +2187,16 @@
         <v>77</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>19</v>
@@ -1767,30 +2205,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="13"/>
+    <row r="28" spans="1:7" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1798,22 +2242,22 @@
         <v>79</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="F30" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,22 +2265,22 @@
         <v>80</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="F31" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,22 +2288,22 @@
         <v>81</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>178</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,165 +2311,336 @@
         <v>82</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="235.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="296.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="342" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="303" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>94</v>
+      <c r="B45" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Tese Cases for Ecommerce project.xlsx
+++ b/Tese Cases for Ecommerce project.xlsx
@@ -1235,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,14 +1246,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,9 +1280,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,10 +1287,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1582,20 +1579,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56" style="7" customWidth="1"/>
-    <col min="3" max="3" width="81.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="22" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="56" style="5" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1602,7 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1621,24 +1618,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1646,19 +1643,19 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1666,19 +1663,19 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1686,22 +1683,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1709,22 +1706,22 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1732,22 +1729,22 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1758,19 +1755,19 @@
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1778,22 +1775,22 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1801,22 +1798,22 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1824,22 +1821,22 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1847,19 +1844,19 @@
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1867,22 +1864,22 @@
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1890,22 +1887,22 @@
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1913,22 +1910,22 @@
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1936,22 +1933,22 @@
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1959,22 +1956,22 @@
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1982,22 +1979,22 @@
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2005,22 +2002,22 @@
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2028,22 +2025,22 @@
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2051,22 +2048,22 @@
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2074,19 +2071,19 @@
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2094,22 +2091,22 @@
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2117,22 +2114,22 @@
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2140,22 +2137,22 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="F25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2163,22 +2160,22 @@
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2186,54 +2183,54 @@
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+    <row r="28" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2241,22 +2238,22 @@
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2264,22 +2261,22 @@
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2287,22 +2284,22 @@
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2310,56 +2307,56 @@
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="21"/>
+    <row r="34" spans="1:7" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2367,22 +2364,22 @@
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2390,22 +2387,22 @@
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2413,22 +2410,22 @@
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="F38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2436,22 +2433,22 @@
       <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2459,22 +2456,22 @@
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2482,22 +2479,22 @@
       <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="F41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2505,22 +2502,22 @@
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="F42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2528,22 +2525,22 @@
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2551,22 +2548,22 @@
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2574,22 +2571,22 @@
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="5" t="s">
         <v>194</v>
       </c>
     </row>
